--- a/biology/Botanique/Adansonia_madagascariensis/Adansonia_madagascariensis.xlsx
+++ b/biology/Botanique/Adansonia_madagascariensis/Adansonia_madagascariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adansonia madagascariensis, ou Mbuiu Mkoundrou en shimaoré, est une espèce d'arbre de la famille des Bombacaceae selon la classification classique, ou de celle des Malvaceae selon la classification phylogénétique APG3.
 Contrairement aux six autres espèces malgaches, cette espèce n'est pas endémique de Madagascar. On la trouve aussi naturellement à Mayotte, où seulement quelques individus sont établis, faisant de l'île de l'archipel des Comores le seul endroit au monde hors de Madagascar où l'on trouve deux espèces de baobabs.
